--- a/frameremovals.xlsx
+++ b/frameremovals.xlsx
@@ -58,6 +58,15 @@
     <t>reason</t>
   </si>
   <si>
+    <t>19f430f3-34d1-4d1b-b320-ac725def0a9c</t>
+  </si>
+  <si>
+    <t>55adc1b3-e0dd-4f42-a650-5550aa8ab4ac</t>
+  </si>
+  <si>
+    <t>5ac1efd8-2708-4590-858b-af8075f41f28</t>
+  </si>
+  <si>
     <t>0b826a3f-cca2-4048-b9a4-45c37dfe1698</t>
   </si>
   <si>
@@ -67,22 +76,22 @@
     <t>5449e5af-ec76-4183-aaac-944e32a9bee0</t>
   </si>
   <si>
-    <t>19f430f3-34d1-4d1b-b320-ac725def0a9c</t>
-  </si>
-  <si>
-    <t>55adc1b3-e0dd-4f42-a650-5550aa8ab4ac</t>
-  </si>
-  <si>
-    <t>5ac1efd8-2708-4590-858b-af8075f41f28</t>
+    <t>170cf471-8b2e-4c95-bd14-c900b962fd59</t>
+  </si>
+  <si>
+    <t>3e3d872a-29e4-4c6c-914a-a964c3764830</t>
   </si>
   <si>
     <t>dac9fda5-b765-4395-b834-188960d6d464</t>
   </si>
   <si>
-    <t>170cf471-8b2e-4c95-bd14-c900b962fd59</t>
-  </si>
-  <si>
-    <t>3e3d872a-29e4-4c6c-914a-a964c3764830</t>
+    <t>b6d9e792-2aad-4f6f-9828-da6138da5ff6</t>
+  </si>
+  <si>
+    <t>f1306d5c-7d10-4ccf-87dd-960272fd3e5e</t>
+  </si>
+  <si>
+    <t>0cacb2c9-3121-4d8e-b95d-15d1919e4e2f</t>
   </si>
   <si>
     <t>ee1c2ec1-eb20-4696-a339-cc36b58e124d</t>
@@ -91,19 +100,13 @@
     <t>50833a5a-eca4-49fe-b011-53afd43d4814</t>
   </si>
   <si>
-    <t>b6d9e792-2aad-4f6f-9828-da6138da5ff6</t>
-  </si>
-  <si>
-    <t>f1306d5c-7d10-4ccf-87dd-960272fd3e5e</t>
-  </si>
-  <si>
-    <t>0cacb2c9-3121-4d8e-b95d-15d1919e4e2f</t>
+    <t>a0e22a2b-a1eb-45f6-84fe-56fdafa460f6</t>
   </si>
   <si>
     <t>10386ba5-3cde-4ace-badf-016813528769</t>
   </si>
   <si>
-    <t>a0e22a2b-a1eb-45f6-84fe-56fdafa460f6</t>
+    <t>d6cd8556-d06f-48f5-a819-28f9021f2ace</t>
   </si>
   <si>
     <t>8c936581-975d-42d0-aca2-2d25117aca21</t>
@@ -115,7 +118,10 @@
     <t>ff0c5bbb-f2e6-454b-af59-732c8b74b5a3</t>
   </si>
   <si>
-    <t>d6cd8556-d06f-48f5-a819-28f9021f2ace</t>
+    <t>22cd6680-1508-455a-9aa8-1238677258aa</t>
+  </si>
+  <si>
+    <t>2bbe7d59-32c3-4b64-a2ae-d1d3813544f6</t>
   </si>
   <si>
     <t>a89af3b8-2100-43f1-b436-bdf0b75439cd</t>
@@ -127,10 +133,13 @@
     <t>ed7ac79c-b009-4272-bd7d-9103e043f4e2</t>
   </si>
   <si>
-    <t>22cd6680-1508-455a-9aa8-1238677258aa</t>
-  </si>
-  <si>
-    <t>2bbe7d59-32c3-4b64-a2ae-d1d3813544f6</t>
+    <t>066fb243-eb2a-4d43-8138-a3cf92af1e5e</t>
+  </si>
+  <si>
+    <t>edf20135-030f-45b5-b205-be31fb37981a</t>
+  </si>
+  <si>
+    <t>e381e8d8-5f71-4083-be4b-c2605bc9b762</t>
   </si>
   <si>
     <t>c9850c39-cc7c-4e7f-88b5-cb7f06e1ec88</t>
@@ -142,22 +151,22 @@
     <t>2996360a-688d-4dfc-aec5-76e46e207833</t>
   </si>
   <si>
-    <t>066fb243-eb2a-4d43-8138-a3cf92af1e5e</t>
-  </si>
-  <si>
-    <t>edf20135-030f-45b5-b205-be31fb37981a</t>
-  </si>
-  <si>
-    <t>e381e8d8-5f71-4083-be4b-c2605bc9b762</t>
+    <t>014789df-c43c-468d-9752-4c2795034ee6</t>
+  </si>
+  <si>
+    <t>c7333ddd-c567-4e2b-aa5b-ce03e15f2561</t>
   </si>
   <si>
     <t>3e69e2c3-09ae-4b94-adda-a371344e6bab</t>
   </si>
   <si>
-    <t>014789df-c43c-468d-9752-4c2795034ee6</t>
-  </si>
-  <si>
-    <t>c7333ddd-c567-4e2b-aa5b-ce03e15f2561</t>
+    <t>564aa6b7-57c5-42c5-bf72-b579c6ebe4f7</t>
+  </si>
+  <si>
+    <t>0920313e-1708-4a90-9058-44d60a72ce34</t>
+  </si>
+  <si>
+    <t>c29b26cb-869c-4d5b-8e73-cfb94c009cea</t>
   </si>
   <si>
     <t>8199256c-d8c4-493c-a89e-e2414592c044</t>
@@ -166,19 +175,13 @@
     <t>b6f40af4-013c-4f16-87a0-b3540d113d90</t>
   </si>
   <si>
-    <t>564aa6b7-57c5-42c5-bf72-b579c6ebe4f7</t>
-  </si>
-  <si>
-    <t>0920313e-1708-4a90-9058-44d60a72ce34</t>
-  </si>
-  <si>
-    <t>c29b26cb-869c-4d5b-8e73-cfb94c009cea</t>
+    <t>afda5947-1350-43fd-90c5-5d6774b73e30</t>
   </si>
   <si>
     <t>ba283d16-ec85-4648-b43c-5372d4115057</t>
   </si>
   <si>
-    <t>afda5947-1350-43fd-90c5-5d6774b73e30</t>
+    <t>1e5d7f74-5aca-47d7-affe-2b3278edfc91</t>
   </si>
   <si>
     <t>0d2d1a26-2681-44df-8311-471cb2299f90</t>
@@ -190,7 +193,10 @@
     <t>b6a15e01-9c9e-4706-86a4-d42b12e6af95</t>
   </si>
   <si>
-    <t>1e5d7f74-5aca-47d7-affe-2b3278edfc91</t>
+    <t>33c35089-d235-4c83-9d40-4496fd56663f</t>
+  </si>
+  <si>
+    <t>b270ae0a-8463-4781-9114-1d15f6393489</t>
   </si>
   <si>
     <t>211b56fd-dfc8-493b-811f-0d12e92c53c2</t>
@@ -202,12 +208,6 @@
     <t>3148dba2-b9cc-4a7d-a90b-44424a4b1809</t>
   </si>
   <si>
-    <t>33c35089-d235-4c83-9d40-4496fd56663f</t>
-  </si>
-  <si>
-    <t>b270ae0a-8463-4781-9114-1d15f6393489</t>
-  </si>
-  <si>
     <t>b8c7f3f0-38d2-4528-9fee-23fba37a4569</t>
   </si>
   <si>
@@ -217,6 +217,15 @@
     <t>978baf61-658d-4665-aa48-168f044698a0</t>
   </si>
   <si>
+    <t>opM97DAWmjJe3E6a</t>
+  </si>
+  <si>
+    <t>rnKxGPdNJkwzby6Y</t>
+  </si>
+  <si>
+    <t>6oRXVPydV8XeJrwG</t>
+  </si>
+  <si>
     <t>6RxlqelrREND3yYw</t>
   </si>
   <si>
@@ -226,22 +235,22 @@
     <t>BQn1KP1vnXNDk3rj</t>
   </si>
   <si>
-    <t>opM97DAWmjJe3E6a</t>
-  </si>
-  <si>
-    <t>rnKxGPdNJkwzby6Y</t>
-  </si>
-  <si>
-    <t>6oRXVPydV8XeJrwG</t>
+    <t>2lkObeZaKvazwNmr</t>
+  </si>
+  <si>
+    <t>mbQ5jD5vngozlx30</t>
   </si>
   <si>
     <t>nMOARz2vWjbzmGN0</t>
   </si>
   <si>
-    <t>2lkObeZaKvazwNmr</t>
-  </si>
-  <si>
-    <t>mbQ5jD5vngozlx30</t>
+    <t>yWrpbeXWa6kzKanm</t>
+  </si>
+  <si>
+    <t>9MOwmzYolOXPq5r1</t>
+  </si>
+  <si>
+    <t>yWrpbeXWOaMzKanm</t>
   </si>
   <si>
     <t>XmaYgDGWAobDBdVJ</t>
@@ -250,19 +259,13 @@
     <t>XAJL7PLW6QneRZGb</t>
   </si>
   <si>
-    <t>yWrpbeXWa6kzKanm</t>
-  </si>
-  <si>
-    <t>9MOwmzYolOXPq5r1</t>
-  </si>
-  <si>
-    <t>yWrpbeXWOaMzKanm</t>
+    <t>BaEnVDpjyxje9KZL</t>
   </si>
   <si>
     <t>LqMnJPvBVx4P3vgj</t>
   </si>
   <si>
-    <t>BaEnVDpjyxje9KZL</t>
+    <t>BQn1KP1vn6gDk3rj</t>
   </si>
   <si>
     <t>Q6Abwz4vJl2PLMJ4</t>
@@ -274,7 +277,10 @@
     <t>BaEnVDpjpQ3e9KZL</t>
   </si>
   <si>
-    <t>BQn1KP1vn6gDk3rj</t>
+    <t>VLq5OD7WBZxDYo7n</t>
+  </si>
+  <si>
+    <t>VLjpnejl9WbD7ak5</t>
   </si>
   <si>
     <t>gw0moer6VMEeqWZM</t>
@@ -284,12 +290,6 @@
   </si>
   <si>
     <t>VLjpnejl9qyD7ak5</t>
-  </si>
-  <si>
-    <t>VLq5OD7WBZxDYo7n</t>
-  </si>
-  <si>
-    <t>VLjpnejl9WbD7ak5</t>
   </si>
   <si>
     <t>4bc154fd-6429-444e-b589-4b3b7cf1bda6</t>
@@ -711,7 +711,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>4321</v>
+        <v>4212</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -735,19 +735,19 @@
         <v>92</v>
       </c>
       <c r="I2">
-        <v>7.10496544826984</v>
+        <v>5.54517744447956</v>
       </c>
       <c r="J2">
-        <v>6.54534966033442</v>
+        <v>6.30627528694802</v>
       </c>
       <c r="K2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>4333</v>
+        <v>4218</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -782,19 +782,19 @@
         <v>92</v>
       </c>
       <c r="I3">
-        <v>6.78558764500793</v>
+        <v>6.12249280951439</v>
       </c>
       <c r="J3">
-        <v>6.2803958389602</v>
+        <v>6.77650699237218</v>
       </c>
       <c r="K3">
         <v>5</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M3">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>4917</v>
+        <v>4219</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -829,19 +829,19 @@
         <v>92</v>
       </c>
       <c r="I4">
-        <v>6.45204895443723</v>
+        <v>4.43081679884332</v>
       </c>
       <c r="J4">
-        <v>6.60394382460047</v>
+        <v>6.18208490671663</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>5049</v>
+        <v>4915</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -876,19 +876,19 @@
         <v>92</v>
       </c>
       <c r="I5">
-        <v>5.54517744447956</v>
+        <v>7.10496544826984</v>
       </c>
       <c r="J5">
-        <v>6.30627528694802</v>
+        <v>6.54534966033442</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M5">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>5055</v>
+        <v>4927</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -923,19 +923,19 @@
         <v>92</v>
       </c>
       <c r="I6">
-        <v>6.12249280951439</v>
+        <v>6.78558764500793</v>
       </c>
       <c r="J6">
-        <v>6.77650699237218</v>
+        <v>6.2803958389602</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>5056</v>
+        <v>5214</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -970,19 +970,19 @@
         <v>92</v>
       </c>
       <c r="I7">
-        <v>4.43081679884332</v>
+        <v>6.45204895443723</v>
       </c>
       <c r="J7">
-        <v>6.18208490671663</v>
+        <v>6.60394382460047</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>11347</v>
+        <v>11533</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1017,19 +1017,19 @@
         <v>92</v>
       </c>
       <c r="I8">
-        <v>7.70436116791031</v>
+        <v>5.81413053182507</v>
       </c>
       <c r="J8">
-        <v>6.59167373200866</v>
+        <v>7.58171964012531</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>12910</v>
+        <v>11598</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1064,19 +1064,19 @@
         <v>92</v>
       </c>
       <c r="I9">
-        <v>5.81413053182507</v>
+        <v>6.53378883793334</v>
       </c>
       <c r="J9">
-        <v>7.58171964012531</v>
+        <v>7.62364194651157</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>12975</v>
+        <v>12778</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1111,19 +1111,19 @@
         <v>92</v>
       </c>
       <c r="I10">
-        <v>6.53378883793334</v>
+        <v>7.70436116791031</v>
       </c>
       <c r="J10">
-        <v>7.62364194651157</v>
+        <v>6.59167373200866</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M10">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>4494</v>
+        <v>4219</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -1152,25 +1152,25 @@
         <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>92</v>
       </c>
       <c r="I11">
-        <v>5.32300997913841</v>
+        <v>4.43081679884332</v>
       </c>
       <c r="J11">
-        <v>5.77765232322266</v>
+        <v>6.18208490671663</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>4592</v>
+        <v>4226</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
@@ -1199,25 +1199,25 @@
         <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
         <v>92</v>
       </c>
       <c r="I12">
-        <v>4.63472898822964</v>
+        <v>4.88280192258637</v>
       </c>
       <c r="J12">
-        <v>5.2257466737132</v>
+        <v>5.62401750618734</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>52</v>
+        <v>544</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
@@ -1228,13 +1228,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>5056</v>
+        <v>4332</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -1246,25 +1246,25 @@
         <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
         <v>92</v>
       </c>
       <c r="I13">
-        <v>4.43081679884332</v>
+        <v>5.04342511691925</v>
       </c>
       <c r="J13">
-        <v>6.18208490671663</v>
+        <v>5.97126183979046</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>5063</v>
+        <v>4450</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1299,19 +1299,19 @@
         <v>92</v>
       </c>
       <c r="I14">
-        <v>4.88280192258637</v>
+        <v>4.96284463025991</v>
       </c>
       <c r="J14">
-        <v>5.62401750618734</v>
+        <v>5.89989735358249</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>544</v>
+        <v>76</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>5169</v>
+        <v>5007</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1346,19 +1346,19 @@
         <v>92</v>
       </c>
       <c r="I15">
-        <v>5.04342511691925</v>
+        <v>5.32300997913841</v>
       </c>
       <c r="J15">
-        <v>5.97126183979046</v>
+        <v>5.77765232322266</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>5287</v>
+        <v>5051</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -1393,19 +1393,19 @@
         <v>92</v>
       </c>
       <c r="I16">
-        <v>4.96284463025991</v>
+        <v>4.63472898822964</v>
       </c>
       <c r="J16">
-        <v>5.89989735358249</v>
+        <v>5.2257466737132</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>11389</v>
+        <v>11361</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -1440,19 +1440,19 @@
         <v>92</v>
       </c>
       <c r="I17">
-        <v>4.68213122712422</v>
+        <v>5.33753807970132</v>
       </c>
       <c r="J17">
-        <v>6.02344759296103</v>
+        <v>5.82894561761021</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>12738</v>
+        <v>12820</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -1487,19 +1487,19 @@
         <v>92</v>
       </c>
       <c r="I18">
-        <v>5.33753807970132</v>
+        <v>4.68213122712422</v>
       </c>
       <c r="J18">
-        <v>5.82894561761021</v>
+        <v>6.02344759296103</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
@@ -1510,13 +1510,13 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>4592</v>
+        <v>4219</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>64</v>
@@ -1528,25 +1528,25 @@
         <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
         <v>92</v>
       </c>
       <c r="I19">
-        <v>4.63472898822964</v>
+        <v>4.43081679884332</v>
       </c>
       <c r="J19">
-        <v>5.2257466737132</v>
+        <v>6.18208490671663</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
@@ -1557,13 +1557,13 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>4662</v>
+        <v>4226</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
@@ -1575,25 +1575,25 @@
         <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s">
         <v>92</v>
       </c>
       <c r="I20">
-        <v>6.39692965521615</v>
+        <v>4.88280192258637</v>
       </c>
       <c r="J20">
-        <v>3.66356164612965</v>
+        <v>5.62401750618734</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>370</v>
+        <v>544</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>4916</v>
+        <v>4383</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>64</v>
@@ -1622,25 +1622,25 @@
         <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
         <v>92</v>
       </c>
       <c r="I21">
-        <v>6.31716468674728</v>
+        <v>6.87832646829133</v>
       </c>
       <c r="J21">
-        <v>5.58724865840025</v>
+        <v>4.969813299576</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="M21">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>4921</v>
+        <v>4450</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -1669,25 +1669,25 @@
         <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
         <v>92</v>
       </c>
       <c r="I22">
-        <v>7.15226885603254</v>
+        <v>4.96284463025991</v>
       </c>
       <c r="J22">
-        <v>3.04452243772343</v>
+        <v>5.89989735358249</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>540</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
@@ -1698,43 +1698,43 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>5056</v>
+        <v>5051</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23">
+        <v>4.63472898822964</v>
+      </c>
+      <c r="J23">
+        <v>5.2257466737132</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
         <v>44</v>
       </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23">
-        <v>4.43081679884332</v>
-      </c>
-      <c r="J23">
-        <v>6.18208490671663</v>
-      </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23">
-        <v>42</v>
-      </c>
       <c r="M23">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>5063</v>
+        <v>5094</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -1763,25 +1763,25 @@
         <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
         <v>92</v>
       </c>
       <c r="I24">
-        <v>4.88280192258637</v>
+        <v>6.39692965521615</v>
       </c>
       <c r="J24">
-        <v>5.62401750618734</v>
+        <v>3.66356164612965</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>544</v>
+        <v>370</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>5220</v>
+        <v>5213</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>64</v>
@@ -1810,25 +1810,25 @@
         <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
         <v>92</v>
       </c>
       <c r="I25">
-        <v>6.87832646829133</v>
+        <v>6.31716468674728</v>
       </c>
       <c r="J25">
-        <v>4.969813299576</v>
+        <v>5.58724865840025</v>
       </c>
       <c r="K25">
         <v>4</v>
       </c>
       <c r="L25">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>248</v>
+        <v>56</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1">
-        <v>5287</v>
+        <v>5218</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>64</v>
@@ -1857,25 +1857,25 @@
         <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
         <v>92</v>
       </c>
       <c r="I26">
-        <v>4.96284463025991</v>
+        <v>7.15226885603254</v>
       </c>
       <c r="J26">
-        <v>5.89989735358249</v>
+        <v>3.04452243772343</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>540</v>
       </c>
       <c r="M26">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>11360</v>
+        <v>11337</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -1910,19 +1910,19 @@
         <v>92</v>
       </c>
       <c r="I27">
-        <v>6.98656645940643</v>
+        <v>5.50125821054473</v>
       </c>
       <c r="J27">
-        <v>3.49650756146648</v>
+        <v>5.59842195899838</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1">
-        <v>11389</v>
+        <v>11563</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>64</v>
@@ -1951,25 +1951,25 @@
         <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
         <v>92</v>
       </c>
       <c r="I28">
-        <v>4.68213122712422</v>
+        <v>6.15060276844628</v>
       </c>
       <c r="J28">
-        <v>6.02344759296103</v>
+        <v>5.01063529409626</v>
       </c>
       <c r="K28">
         <v>4</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M28">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1">
-        <v>11459</v>
+        <v>11598</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>64</v>
@@ -1998,25 +1998,25 @@
         <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
         <v>92</v>
       </c>
       <c r="I29">
-        <v>6.5410299991899</v>
+        <v>6.53378883793334</v>
       </c>
       <c r="J29">
-        <v>6.07073772800249</v>
+        <v>7.62364194651157</v>
       </c>
       <c r="K29">
         <v>4</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1">
-        <v>11517</v>
+        <v>12791</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -2051,19 +2051,19 @@
         <v>92</v>
       </c>
       <c r="I30">
-        <v>6.36302810354046</v>
+        <v>6.98656645940643</v>
       </c>
       <c r="J30">
-        <v>4.21950770517611</v>
+        <v>3.49650756146648</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="N30" t="b">
         <v>1</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1">
-        <v>12714</v>
+        <v>12820</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2092,25 +2092,25 @@
         <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>92</v>
       </c>
       <c r="I31">
-        <v>5.50125821054473</v>
+        <v>4.68213122712422</v>
       </c>
       <c r="J31">
-        <v>5.59842195899838</v>
+        <v>6.02344759296103</v>
       </c>
       <c r="K31">
         <v>4</v>
       </c>
       <c r="L31">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N31" t="b">
         <v>1</v>
@@ -2121,13 +2121,13 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1">
-        <v>12940</v>
+        <v>12890</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>64</v>
@@ -2139,25 +2139,25 @@
         <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s">
         <v>92</v>
       </c>
       <c r="I32">
-        <v>6.15060276844628</v>
+        <v>6.5410299991899</v>
       </c>
       <c r="J32">
-        <v>5.01063529409626</v>
+        <v>6.07073772800249</v>
       </c>
       <c r="K32">
         <v>4</v>
       </c>
       <c r="L32">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
@@ -2168,13 +2168,13 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>12975</v>
+        <v>12948</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
         <v>64</v>
@@ -2186,25 +2186,25 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s">
         <v>92</v>
       </c>
       <c r="I33">
-        <v>6.53378883793334</v>
+        <v>6.36302810354046</v>
       </c>
       <c r="J33">
-        <v>7.62364194651157</v>
+        <v>4.21950770517611</v>
       </c>
       <c r="K33">
         <v>4</v>
       </c>
       <c r="L33">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>

--- a/frameremovals.xlsx
+++ b/frameremovals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="137">
   <si>
     <t>ticketid</t>
   </si>
@@ -58,6 +58,15 @@
     <t>reason</t>
   </si>
   <si>
+    <t>4f723324-27d7-4a9f-96f6-97bc425eb237</t>
+  </si>
+  <si>
+    <t>ebb72474-7dd4-4e18-ad5c-18a3b3ecaf4c</t>
+  </si>
+  <si>
+    <t>dce3159a-f338-43ab-aed5-1262a3fd304a</t>
+  </si>
+  <si>
     <t>19f430f3-34d1-4d1b-b320-ac725def0a9c</t>
   </si>
   <si>
@@ -67,72 +76,114 @@
     <t>5ac1efd8-2708-4590-858b-af8075f41f28</t>
   </si>
   <si>
+    <t>b6d9e792-2aad-4f6f-9828-da6138da5ff6</t>
+  </si>
+  <si>
+    <t>3a7d8154-adf6-4907-a835-94ad4581b803</t>
+  </si>
+  <si>
+    <t>f1306d5c-7d10-4ccf-87dd-960272fd3e5e</t>
+  </si>
+  <si>
+    <t>0cacb2c9-3121-4d8e-b95d-15d1919e4e2f</t>
+  </si>
+  <si>
+    <t>46677318-0d76-4d3f-a9d1-d6d1b54f1c3d</t>
+  </si>
+  <si>
     <t>0b826a3f-cca2-4048-b9a4-45c37dfe1698</t>
   </si>
   <si>
+    <t>dac4c0dc-5270-413e-99a4-c4b9a165d083</t>
+  </si>
+  <si>
     <t>0ce22d81-edba-4cee-9e83-6b771de9e8ed</t>
   </si>
   <si>
+    <t>ee1c2ec1-eb20-4696-a339-cc36b58e124d</t>
+  </si>
+  <si>
+    <t>0a0718a9-8cdb-47f5-8f06-fa3f5494e2b3</t>
+  </si>
+  <si>
     <t>5449e5af-ec76-4183-aaac-944e32a9bee0</t>
   </si>
   <si>
+    <t>543be4c8-9bdf-48d7-ad57-868753044fd5</t>
+  </si>
+  <si>
+    <t>22cd6680-1508-455a-9aa8-1238677258aa</t>
+  </si>
+  <si>
+    <t>05bc4c0c-ef23-4d0e-a787-85b7bd330821</t>
+  </si>
+  <si>
+    <t>a0e22a2b-a1eb-45f6-84fe-56fdafa460f6</t>
+  </si>
+  <si>
+    <t>adb79519-d0dd-43fb-8895-0a4c4205fb41</t>
+  </si>
+  <si>
+    <t>ec1071ae-fdba-4027-a5dc-c43ba0586906</t>
+  </si>
+  <si>
     <t>170cf471-8b2e-4c95-bd14-c900b962fd59</t>
   </si>
   <si>
+    <t>ecc850f9-ec13-47a1-96f4-68fb16f19c52</t>
+  </si>
+  <si>
     <t>3e3d872a-29e4-4c6c-914a-a964c3764830</t>
   </si>
   <si>
+    <t>623b05cf-d7df-4d7e-8cd4-1debb74121a5</t>
+  </si>
+  <si>
     <t>dac9fda5-b765-4395-b834-188960d6d464</t>
   </si>
   <si>
-    <t>b6d9e792-2aad-4f6f-9828-da6138da5ff6</t>
-  </si>
-  <si>
-    <t>f1306d5c-7d10-4ccf-87dd-960272fd3e5e</t>
-  </si>
-  <si>
-    <t>0cacb2c9-3121-4d8e-b95d-15d1919e4e2f</t>
-  </si>
-  <si>
-    <t>ee1c2ec1-eb20-4696-a339-cc36b58e124d</t>
+    <t>10386ba5-3cde-4ace-badf-016813528769</t>
+  </si>
+  <si>
+    <t>18e963ae-7dac-478f-9098-f7da859762f6</t>
+  </si>
+  <si>
+    <t>0c533ea6-5a78-49ee-a577-81ae51bd8238</t>
+  </si>
+  <si>
+    <t>22e979c2-80f9-4ac0-b022-d4fb6548c37d</t>
+  </si>
+  <si>
+    <t>d6cd8556-d06f-48f5-a819-28f9021f2ace</t>
   </si>
   <si>
     <t>50833a5a-eca4-49fe-b011-53afd43d4814</t>
   </si>
   <si>
-    <t>a0e22a2b-a1eb-45f6-84fe-56fdafa460f6</t>
-  </si>
-  <si>
-    <t>10386ba5-3cde-4ace-badf-016813528769</t>
-  </si>
-  <si>
-    <t>d6cd8556-d06f-48f5-a819-28f9021f2ace</t>
-  </si>
-  <si>
     <t>8c936581-975d-42d0-aca2-2d25117aca21</t>
   </si>
   <si>
-    <t>0a0718a9-8cdb-47f5-8f06-fa3f5494e2b3</t>
-  </si>
-  <si>
     <t>ff0c5bbb-f2e6-454b-af59-732c8b74b5a3</t>
   </si>
   <si>
-    <t>22cd6680-1508-455a-9aa8-1238677258aa</t>
-  </si>
-  <si>
     <t>2bbe7d59-32c3-4b64-a2ae-d1d3813544f6</t>
   </si>
   <si>
     <t>a89af3b8-2100-43f1-b436-bdf0b75439cd</t>
   </si>
   <si>
-    <t>18e963ae-7dac-478f-9098-f7da859762f6</t>
-  </si>
-  <si>
     <t>ed7ac79c-b009-4272-bd7d-9103e043f4e2</t>
   </si>
   <si>
+    <t>33cd9aab-f97b-4902-8fb2-0595e96109f6</t>
+  </si>
+  <si>
+    <t>ec69e68b-90bc-4aec-8e0e-cdbbd7a95fdf</t>
+  </si>
+  <si>
+    <t>5193bebc-c223-4964-b391-a4403147dfcb</t>
+  </si>
+  <si>
     <t>066fb243-eb2a-4d43-8138-a3cf92af1e5e</t>
   </si>
   <si>
@@ -142,69 +193,102 @@
     <t>e381e8d8-5f71-4083-be4b-c2605bc9b762</t>
   </si>
   <si>
+    <t>564aa6b7-57c5-42c5-bf72-b579c6ebe4f7</t>
+  </si>
+  <si>
+    <t>a054839b-4447-4af3-bccf-261e4af02e49</t>
+  </si>
+  <si>
+    <t>0920313e-1708-4a90-9058-44d60a72ce34</t>
+  </si>
+  <si>
+    <t>c29b26cb-869c-4d5b-8e73-cfb94c009cea</t>
+  </si>
+  <si>
+    <t>1195b14d-0fb6-4ca1-8c8e-87e5221acd1e</t>
+  </si>
+  <si>
     <t>c9850c39-cc7c-4e7f-88b5-cb7f06e1ec88</t>
   </si>
   <si>
+    <t>54b98199-b5a1-4377-ace2-8efe7c48231d</t>
+  </si>
+  <si>
     <t>b9b4f37b-82dc-48a3-8f82-7f169d26ff23</t>
   </si>
   <si>
+    <t>8199256c-d8c4-493c-a89e-e2414592c044</t>
+  </si>
+  <si>
+    <t>e628457b-90ba-4a6a-91e9-ea4a44b5c3e8</t>
+  </si>
+  <si>
     <t>2996360a-688d-4dfc-aec5-76e46e207833</t>
   </si>
   <si>
+    <t>e2f9258b-b860-40aa-8416-c5876ecdb7fb</t>
+  </si>
+  <si>
+    <t>33c35089-d235-4c83-9d40-4496fd56663f</t>
+  </si>
+  <si>
+    <t>5c2f1624-e4dd-42c5-9c1b-c98014ffebdb</t>
+  </si>
+  <si>
+    <t>afda5947-1350-43fd-90c5-5d6774b73e30</t>
+  </si>
+  <si>
+    <t>c8119d97-c5f0-4572-b968-874e2613033c</t>
+  </si>
+  <si>
+    <t>92c2d664-d29d-401b-b750-0451e44a9472</t>
+  </si>
+  <si>
     <t>014789df-c43c-468d-9752-4c2795034ee6</t>
   </si>
   <si>
+    <t>46d54e68-9c78-4efd-b64f-c071bdf47adb</t>
+  </si>
+  <si>
     <t>c7333ddd-c567-4e2b-aa5b-ce03e15f2561</t>
   </si>
   <si>
+    <t>1e332f94-3767-445b-8fc5-ca94e5e0d1d2</t>
+  </si>
+  <si>
     <t>3e69e2c3-09ae-4b94-adda-a371344e6bab</t>
   </si>
   <si>
-    <t>564aa6b7-57c5-42c5-bf72-b579c6ebe4f7</t>
-  </si>
-  <si>
-    <t>0920313e-1708-4a90-9058-44d60a72ce34</t>
-  </si>
-  <si>
-    <t>c29b26cb-869c-4d5b-8e73-cfb94c009cea</t>
-  </si>
-  <si>
-    <t>8199256c-d8c4-493c-a89e-e2414592c044</t>
+    <t>ba283d16-ec85-4648-b43c-5372d4115057</t>
+  </si>
+  <si>
+    <t>adc6af90-a256-496f-b9d9-255e93e21140</t>
+  </si>
+  <si>
+    <t>9cb4e416-ef70-4225-9e4b-2e1b90553e79</t>
+  </si>
+  <si>
+    <t>076cfb3b-de74-4a5e-a134-2ae6153f853f</t>
+  </si>
+  <si>
+    <t>1e5d7f74-5aca-47d7-affe-2b3278edfc91</t>
   </si>
   <si>
     <t>b6f40af4-013c-4f16-87a0-b3540d113d90</t>
   </si>
   <si>
-    <t>afda5947-1350-43fd-90c5-5d6774b73e30</t>
-  </si>
-  <si>
-    <t>ba283d16-ec85-4648-b43c-5372d4115057</t>
-  </si>
-  <si>
-    <t>1e5d7f74-5aca-47d7-affe-2b3278edfc91</t>
-  </si>
-  <si>
     <t>0d2d1a26-2681-44df-8311-471cb2299f90</t>
   </si>
   <si>
-    <t>e628457b-90ba-4a6a-91e9-ea4a44b5c3e8</t>
-  </si>
-  <si>
     <t>b6a15e01-9c9e-4706-86a4-d42b12e6af95</t>
   </si>
   <si>
-    <t>33c35089-d235-4c83-9d40-4496fd56663f</t>
-  </si>
-  <si>
     <t>b270ae0a-8463-4781-9114-1d15f6393489</t>
   </si>
   <si>
     <t>211b56fd-dfc8-493b-811f-0d12e92c53c2</t>
   </si>
   <si>
-    <t>adc6af90-a256-496f-b9d9-255e93e21140</t>
-  </si>
-  <si>
     <t>3148dba2-b9cc-4a7d-a90b-44424a4b1809</t>
   </si>
   <si>
@@ -217,6 +301,15 @@
     <t>978baf61-658d-4665-aa48-168f044698a0</t>
   </si>
   <si>
+    <t>1kl5Xz8vkYgPEB8m</t>
+  </si>
+  <si>
+    <t>BaEnVDpjyX3e9KZL</t>
+  </si>
+  <si>
+    <t>rnKxGPdNyn7zby6Y</t>
+  </si>
+  <si>
     <t>opM97DAWmjJe3E6a</t>
   </si>
   <si>
@@ -226,69 +319,102 @@
     <t>6oRXVPydV8XeJrwG</t>
   </si>
   <si>
+    <t>yWrpbeXWa6kzKanm</t>
+  </si>
+  <si>
+    <t>XAJL7PLWJJYeRZGb</t>
+  </si>
+  <si>
+    <t>9MOwmzYolOXPq5r1</t>
+  </si>
+  <si>
+    <t>yWrpbeXWOaMzKanm</t>
+  </si>
+  <si>
+    <t>jGykYPn15w5elvOW</t>
+  </si>
+  <si>
     <t>6RxlqelrREND3yYw</t>
   </si>
   <si>
+    <t>XmaYgDGWLk5DBdVJ</t>
+  </si>
+  <si>
     <t>BQn1KP1vL0QDk3rj</t>
   </si>
   <si>
+    <t>XmaYgDGWAobDBdVJ</t>
+  </si>
+  <si>
+    <t>r1qgbPaxoOgeal7E</t>
+  </si>
+  <si>
     <t>BQn1KP1vnXNDk3rj</t>
   </si>
   <si>
+    <t>oBv7xe0Znq8DrjAM</t>
+  </si>
+  <si>
+    <t>VLq5OD7WBZxDYo7n</t>
+  </si>
+  <si>
+    <t>d9OQkP9vk2rDAZ5N</t>
+  </si>
+  <si>
+    <t>BaEnVDpjyxje9KZL</t>
+  </si>
+  <si>
+    <t>BQn1KP1vEolDk3rj</t>
+  </si>
+  <si>
+    <t>BQn1KP1v2XnDk3rj</t>
+  </si>
+  <si>
     <t>2lkObeZaKvazwNmr</t>
   </si>
   <si>
+    <t>ypjYLeNWpRjPQJ4B</t>
+  </si>
+  <si>
     <t>mbQ5jD5vngozlx30</t>
   </si>
   <si>
+    <t>WElG4Pk3RVJPZLqy</t>
+  </si>
+  <si>
     <t>nMOARz2vWjbzmGN0</t>
   </si>
   <si>
-    <t>yWrpbeXWa6kzKanm</t>
-  </si>
-  <si>
-    <t>9MOwmzYolOXPq5r1</t>
-  </si>
-  <si>
-    <t>yWrpbeXWOaMzKanm</t>
-  </si>
-  <si>
-    <t>XmaYgDGWAobDBdVJ</t>
+    <t>LqMnJPvBVx4P3vgj</t>
+  </si>
+  <si>
+    <t>G1KqyD6bpp9DAw0J</t>
+  </si>
+  <si>
+    <t>Q6Abwz4vJL4PLMJ4</t>
+  </si>
+  <si>
+    <t>nMOARz2vNEbzmGN0</t>
+  </si>
+  <si>
+    <t>BQn1KP1vn6gDk3rj</t>
   </si>
   <si>
     <t>XAJL7PLW6QneRZGb</t>
   </si>
   <si>
-    <t>BaEnVDpjyxje9KZL</t>
-  </si>
-  <si>
-    <t>LqMnJPvBVx4P3vgj</t>
-  </si>
-  <si>
-    <t>BQn1KP1vn6gDk3rj</t>
-  </si>
-  <si>
     <t>Q6Abwz4vJl2PLMJ4</t>
   </si>
   <si>
-    <t>r1qgbPaxoOgeal7E</t>
-  </si>
-  <si>
     <t>BaEnVDpjpQ3e9KZL</t>
   </si>
   <si>
-    <t>VLq5OD7WBZxDYo7n</t>
-  </si>
-  <si>
     <t>VLjpnejl9WbD7ak5</t>
   </si>
   <si>
     <t>gw0moer6VMEeqWZM</t>
   </si>
   <si>
-    <t>G1KqyD6bpp9DAw0J</t>
-  </si>
-  <si>
     <t>VLjpnejl9qyD7ak5</t>
   </si>
   <si>
@@ -296,9 +422,6 @@
   </si>
   <si>
     <t>High Latency</t>
-  </si>
-  <si>
-    <t>Low Bandwidth</t>
   </si>
   <si>
     <t>Low Frame Rate</t>
@@ -659,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,1506 +834,2211 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>4212</v>
+        <v>4084</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I2">
-        <v>5.54517744447956</v>
+        <v>264</v>
       </c>
       <c r="J2">
-        <v>6.30627528694802</v>
+        <v>326</v>
       </c>
       <c r="K2">
         <v>8</v>
       </c>
       <c r="L2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M2">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>4218</v>
+        <v>4085</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I3">
-        <v>6.12249280951439</v>
+        <v>689</v>
       </c>
       <c r="J3">
-        <v>6.77650699237218</v>
+        <v>322</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L3">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>4219</v>
+        <v>4240</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I4">
-        <v>4.43081679884332</v>
+        <v>561</v>
       </c>
       <c r="J4">
-        <v>6.18208490671663</v>
+        <v>267</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>4915</v>
+        <v>4455</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5">
+        <v>256</v>
+      </c>
+      <c r="J5">
+        <v>548</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5">
-        <v>7.10496544826984</v>
-      </c>
-      <c r="J5">
-        <v>6.54534966033442</v>
-      </c>
-      <c r="K5">
-        <v>17</v>
-      </c>
-      <c r="L5">
-        <v>34</v>
-      </c>
       <c r="M5">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>4927</v>
+        <v>4461</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I6">
-        <v>6.78558764500793</v>
+        <v>456</v>
       </c>
       <c r="J6">
-        <v>6.2803958389602</v>
+        <v>877</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>5214</v>
+        <v>4462</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I7">
-        <v>6.45204895443723</v>
+        <v>84</v>
       </c>
       <c r="J7">
-        <v>6.60394382460047</v>
+        <v>484</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>11533</v>
+        <v>4469</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I8">
-        <v>5.81413053182507</v>
+        <v>132</v>
       </c>
       <c r="J8">
-        <v>7.58171964012531</v>
+        <v>277</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>178</v>
+        <v>544</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>11598</v>
+        <v>4479</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I9">
-        <v>6.53378883793334</v>
+        <v>1051</v>
       </c>
       <c r="J9">
-        <v>7.62364194651157</v>
+        <v>300</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>12778</v>
+        <v>4575</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I10">
-        <v>7.70436116791031</v>
+        <v>155</v>
       </c>
       <c r="J10">
-        <v>6.59167373200866</v>
+        <v>392</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>4219</v>
+        <v>4693</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I11">
-        <v>4.43081679884332</v>
+        <v>143</v>
       </c>
       <c r="J11">
-        <v>6.18208490671663</v>
+        <v>365</v>
       </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>4226</v>
+        <v>4864</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I12">
-        <v>4.88280192258637</v>
+        <v>1518</v>
       </c>
       <c r="J12">
-        <v>5.62401750618734</v>
+        <v>282</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>544</v>
+        <v>52</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>4332</v>
+        <v>4915</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I13">
-        <v>5.04342511691925</v>
+        <v>1218</v>
       </c>
       <c r="J13">
-        <v>5.97126183979046</v>
+        <v>696</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>4450</v>
+        <v>4925</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I14">
-        <v>4.96284463025991</v>
+        <v>999</v>
       </c>
       <c r="J14">
-        <v>5.89989735358249</v>
+        <v>321</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>5007</v>
+        <v>4927</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I15">
-        <v>5.32300997913841</v>
+        <v>885</v>
       </c>
       <c r="J15">
-        <v>5.77765232322266</v>
+        <v>534</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>5051</v>
+        <v>5088</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I16">
-        <v>4.63472898822964</v>
+        <v>205</v>
       </c>
       <c r="J16">
-        <v>5.2257466737132</v>
+        <v>323</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>11361</v>
+        <v>5294</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I17">
-        <v>5.33753807970132</v>
+        <v>554</v>
       </c>
       <c r="J17">
-        <v>5.82894561761021</v>
+        <v>267</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L17">
         <v>35</v>
       </c>
       <c r="M17">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>12820</v>
+        <v>5295</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18">
+        <v>634</v>
+      </c>
+      <c r="J18">
+        <v>738</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>39</v>
+      </c>
+      <c r="M18">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18">
-        <v>4.68213122712422</v>
-      </c>
-      <c r="J18">
-        <v>6.02344759296103</v>
-      </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>41</v>
-      </c>
-      <c r="M18">
-        <v>72</v>
-      </c>
       <c r="N18" t="b">
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>4219</v>
+        <v>5315</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I19">
-        <v>4.43081679884332</v>
+        <v>989</v>
       </c>
       <c r="J19">
-        <v>6.18208490671663</v>
+        <v>220</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>4226</v>
+        <v>11256</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I20">
-        <v>4.88280192258637</v>
+        <v>245</v>
       </c>
       <c r="J20">
-        <v>5.62401750618734</v>
+        <v>270</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>544</v>
+        <v>74</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>4383</v>
+        <v>11262</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I21">
-        <v>6.87832646829133</v>
+        <v>1340</v>
       </c>
       <c r="J21">
-        <v>4.969813299576</v>
+        <v>288</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L21">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>4450</v>
+        <v>11280</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I22">
-        <v>4.96284463025991</v>
+        <v>208</v>
       </c>
       <c r="J22">
-        <v>5.89989735358249</v>
+        <v>340</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>5051</v>
+        <v>11299</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23">
+        <v>2270</v>
+      </c>
+      <c r="J23">
+        <v>324</v>
+      </c>
+      <c r="K23">
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
         <v>64</v>
       </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23">
-        <v>4.63472898822964</v>
-      </c>
-      <c r="J23">
-        <v>5.2257466737132</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>44</v>
-      </c>
-      <c r="M23">
-        <v>52</v>
-      </c>
       <c r="N23" t="b">
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>5094</v>
+        <v>11384</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I24">
-        <v>6.39692965521615</v>
+        <v>2014</v>
       </c>
       <c r="J24">
-        <v>3.66356164612965</v>
+        <v>316</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>370</v>
+        <v>108</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>5213</v>
+        <v>11452</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25">
+        <v>335</v>
+      </c>
+      <c r="J25">
+        <v>1962</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
         <v>65</v>
       </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25">
-        <v>6.31716468674728</v>
-      </c>
-      <c r="J25">
-        <v>5.58724865840025</v>
-      </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>35</v>
-      </c>
       <c r="M25">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1">
-        <v>5218</v>
+        <v>11467</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I26">
-        <v>7.15226885603254</v>
+        <v>1238</v>
       </c>
       <c r="J26">
-        <v>3.04452243772343</v>
+        <v>335</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L26">
-        <v>540</v>
+        <v>46</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>11337</v>
+        <v>11517</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I27">
-        <v>5.50125821054473</v>
+        <v>688</v>
       </c>
       <c r="J27">
-        <v>5.59842195899838</v>
+        <v>2046</v>
       </c>
       <c r="K27">
         <v>4</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1">
-        <v>11563</v>
+        <v>12793</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I28">
-        <v>6.15060276844628</v>
+        <v>324</v>
       </c>
       <c r="J28">
-        <v>5.01063529409626</v>
+        <v>244</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L28">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1">
-        <v>11598</v>
+        <v>12886</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I29">
-        <v>6.53378883793334</v>
+        <v>2218</v>
       </c>
       <c r="J29">
-        <v>7.62364194651157</v>
+        <v>729</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L29">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1">
-        <v>12791</v>
+        <v>12928</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I30">
-        <v>6.98656645940643</v>
+        <v>108</v>
       </c>
       <c r="J30">
-        <v>3.49650756146648</v>
+        <v>413</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="N30" t="b">
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1">
-        <v>12820</v>
+        <v>12998</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I31">
-        <v>4.68213122712422</v>
+        <v>693</v>
       </c>
       <c r="J31">
-        <v>6.02344759296103</v>
+        <v>433</v>
       </c>
       <c r="K31">
         <v>4</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N31" t="b">
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1">
-        <v>12890</v>
+        <v>12999</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I32">
-        <v>6.5410299991899</v>
+        <v>2014</v>
       </c>
       <c r="J32">
-        <v>6.07073772800249</v>
+        <v>275</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>12948</v>
+        <v>13006</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33">
+        <v>665</v>
+      </c>
+      <c r="J33">
+        <v>289</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <v>58</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>4462</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34">
+        <v>84</v>
+      </c>
+      <c r="J34">
+        <v>484</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>42</v>
+      </c>
+      <c r="M34">
+        <v>34</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>4469</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35">
+        <v>132</v>
+      </c>
+      <c r="J35">
+        <v>277</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>48</v>
+      </c>
+      <c r="M35">
+        <v>544</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>4626</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36">
+        <v>971</v>
+      </c>
+      <c r="J36">
+        <v>144</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>83</v>
+      </c>
+      <c r="M36">
+        <v>248</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>4693</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37">
+        <v>143</v>
+      </c>
+      <c r="J37">
+        <v>365</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>37</v>
+      </c>
+      <c r="M37">
+        <v>76</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>5132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38">
+        <v>103</v>
+      </c>
+      <c r="J38">
+        <v>186</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>44</v>
+      </c>
+      <c r="M38">
+        <v>52</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>5175</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39">
+        <v>600</v>
+      </c>
+      <c r="J39">
+        <v>39</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>44</v>
+      </c>
+      <c r="M39">
+        <v>370</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>5294</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40">
+        <v>554</v>
+      </c>
+      <c r="J40">
+        <v>267</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>56</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>5299</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41">
+        <v>1277</v>
+      </c>
+      <c r="J41">
+        <v>21</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>540</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>11256</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42">
+        <v>245</v>
+      </c>
+      <c r="J42">
+        <v>270</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>49</v>
+      </c>
+      <c r="M42">
+        <v>74</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>11482</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43">
+        <v>469</v>
+      </c>
+      <c r="J43">
+        <v>150</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>56</v>
+      </c>
+      <c r="M43">
+        <v>182</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>11517</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44">
+        <v>688</v>
+      </c>
+      <c r="J44">
+        <v>2046</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
         <v>66</v>
       </c>
-      <c r="G33" t="s">
+      <c r="M44">
+        <v>254</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>12899</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45">
+        <v>1082</v>
+      </c>
+      <c r="J45">
+        <v>33</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>33</v>
+      </c>
+      <c r="M45">
+        <v>194</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>12928</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46">
+        <v>108</v>
+      </c>
+      <c r="J46">
+        <v>413</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>41</v>
+      </c>
+      <c r="M46">
+        <v>72</v>
+      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>12998</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47">
+        <v>693</v>
+      </c>
+      <c r="J47">
+        <v>433</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>25</v>
+      </c>
+      <c r="M47">
+        <v>50</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>13056</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
         <v>91</v>
       </c>
-      <c r="H33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33">
-        <v>6.36302810354046</v>
-      </c>
-      <c r="J33">
-        <v>4.21950770517611</v>
-      </c>
-      <c r="K33">
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48">
+        <v>580</v>
+      </c>
+      <c r="J48">
+        <v>68</v>
+      </c>
+      <c r="K48">
         <v>4</v>
       </c>
-      <c r="L33">
+      <c r="L48">
         <v>29</v>
       </c>
-      <c r="M33">
+      <c r="M48">
         <v>48</v>
       </c>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
-        <v>95</v>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
